--- a/spreadsheets/Taliyah.xlsx
+++ b/spreadsheets/Taliyah.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3621E64-2708-4A16-B1CD-ECB10D5B560D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025696D3-9F96-4C1E-9CA9-E53A42CD6891}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="2730" yWindow="990" windowWidth="21525" windowHeight="11835" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -265,9 +265,6 @@
     <t>https://www.twitch.tv/imavilol</t>
   </si>
   <si>
-    <t>https://pbs.twimg.com/media/D8XKQIxU0AEBff3?format=jpg&amp;name=large</t>
-  </si>
-  <si>
     <t>I play Jungle for the UCI collegiate team. Been challenger since Season 4</t>
   </si>
   <si>
@@ -287,6 +284,9 @@
   </si>
   <si>
     <t>Taliyahs easiest matchup, you can always combo her after she ults, and E her tunnel.</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/uYUonGL.png</t>
   </si>
 </sst>
 </file>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FF1A3E-B1DC-4DEF-A1FF-05C516225EE7}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +861,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>71</v>
@@ -872,7 +872,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -901,7 +901,7 @@
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{235C951C-226D-4A09-9910-B61ACB406D05}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{E3F88263-CA2E-4EDB-BC4A-DA6F6C396B84}"/>
-    <hyperlink ref="B9" r:id="rId3" xr:uid="{7826185C-F5C9-4758-B506-3426845FAD29}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{3658AE7A-F3EC-4C71-A334-192025632771}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -914,7 +914,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G28" sqref="F28:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +953,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>16</v>
@@ -967,7 +967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>17</v>
@@ -1003,7 +1003,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>19</v>
@@ -1107,7 +1107,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1182,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1193,7 +1193,7 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
